--- a/data/trans_dic/P5_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de balcón en su vivienda</t>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,17 +607,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,25; 45,7</t>
+          <t>36,93; 44,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,0; 45,33</t>
+          <t>35,62; 45,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,59; 40,42</t>
+          <t>33,67; 40,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,44; 41,67</t>
+          <t>33,51; 41,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,32; 41,95</t>
+          <t>36,45; 41,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,66; 41,59</t>
+          <t>35,83; 41,77</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>50,51%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,87; 62,19</t>
+          <t>52,53; 61,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,45; 60,39</t>
+          <t>50,95; 60,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,8; 52,23</t>
+          <t>44,09; 52,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,66; 50,97</t>
+          <t>40,81; 49,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,54; 55,79</t>
+          <t>49,68; 55,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,81; 54,23</t>
+          <t>46,96; 53,92</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>49,57%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,96; 65,29</t>
+          <t>45,75; 64,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,97; 63,32</t>
+          <t>42,94; 63,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,71; 53,14</t>
+          <t>37,89; 53,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,4; 53,98</t>
+          <t>37,4; 54,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,83; 57,89</t>
+          <t>44,97; 57,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,71; 56,74</t>
+          <t>43,14; 56,75</t>
         </is>
       </c>
     </row>
@@ -841,12 +842,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>44,55%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,59; 52,45</t>
+          <t>46,5; 52,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,85; 50,57</t>
+          <t>44,14; 51,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 44,9</t>
+          <t>40,06; 44,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,61; 44,5</t>
+          <t>38,73; 44,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,11; 48,03</t>
+          <t>44,03; 47,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,09; 46,46</t>
+          <t>42,48; 46,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>571.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>676412</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>660748</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>665296</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>675146</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1341708</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1335894</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>605637; 734219</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>588595; 750722</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>603023; 728565</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>606345; 741782</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1250735; 1433821</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1240302; 1446187</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>793063</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>763575</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>682191</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>633200</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1475254</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1396775</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>728360; 849739</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>700091; 836447</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>621595; 742975</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>567888; 693488</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1389191; 1561603</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1298576; 1491246</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>237868</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>221984</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>188205</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>191762</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>426072</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>413746</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>193450; 274080</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>181548; 269511</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>156086; 218465</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>154058; 226053</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>375369; 481381</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>360107; 473708</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>645.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>687.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1332.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1085.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1707343</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1646307</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1535692</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1500108</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3243035</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3146415</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1603974; 1809965</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1522556; 1770021</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1447232; 1623428</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1399366; 1600764</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3109669; 3376317</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2999768; 3307968</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>